--- a/Hardware/Final/DCZIA DC31 BADGE BOM.xlsx
+++ b/Hardware/Final/DCZIA DC31 BADGE BOM.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Other\Defcon31-Badge\Hardware\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamster\Documents\Development\dczia\Defcon31-Badge\Hardware\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12F4990-4310-43AB-9CF0-6E7B870CBC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A3DE80-785A-4757-A2D2-C8AB7966F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15675" yWindow="2325" windowWidth="21600" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47196" yWindow="3756" windowWidth="21540" windowHeight="17976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="141">
   <si>
     <t>Refdes</t>
   </si>
@@ -395,9 +382,6 @@
     <t>D1-16</t>
   </si>
   <si>
-    <t>SOD-132</t>
-  </si>
-  <si>
     <t>595-TPS62153RGTR</t>
   </si>
   <si>
@@ -420,6 +404,45 @@
   </si>
   <si>
     <t>SC0918</t>
+  </si>
+  <si>
+    <t>SOD-323</t>
+  </si>
+  <si>
+    <t>963-NRS3015T2R2MNGH</t>
+  </si>
+  <si>
+    <t>NRS3015T2R2MNGH</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>187-CL21A226MQQNNNE</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>CL21A226MQQNNNE</t>
+  </si>
+  <si>
+    <t>885012207036</t>
+  </si>
+  <si>
+    <t>710-885012207036</t>
+  </si>
+  <si>
+    <t>187-CL21A106KOQNNNF</t>
+  </si>
+  <si>
+    <t>CL21A106KOQNNNF</t>
+  </si>
+  <si>
+    <t>3015</t>
   </si>
 </sst>
 </file>
@@ -502,22 +525,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -802,29 +824,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P981"/>
+  <dimension ref="A1:P982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="7"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="6"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +856,7 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -843,7 +865,7 @@
       <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
@@ -874,29 +896,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -906,16 +930,16 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="1">
         <v>0.98199999999999998</v>
       </c>
@@ -930,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
@@ -940,16 +964,16 @@
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="1">
         <v>2.06</v>
       </c>
@@ -961,7 +985,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
@@ -971,16 +995,16 @@
       <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="1">
         <v>0.47699999999999998</v>
       </c>
@@ -988,14 +1012,14 @@
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:J45" si="0">H8*I8</f>
+        <f t="shared" ref="J8:J46" si="0">H8*I8</f>
         <v>0.47699999999999998</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>81</v>
       </c>
@@ -1005,16 +1029,16 @@
       <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="1">
         <v>0.18</v>
       </c>
@@ -1029,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
@@ -1039,16 +1063,16 @@
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>128</v>
+      <c r="D10" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="1">
         <v>6</v>
       </c>
@@ -1063,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>80</v>
       </c>
@@ -1073,16 +1097,16 @@
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="7"/>
       <c r="H11" s="1">
         <v>2.11</v>
       </c>
@@ -1097,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
@@ -1105,18 +1129,18 @@
         <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="4" t="s">
         <v>122</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="8"/>
+        <v>120</v>
+      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="1">
         <v>1.03</v>
       </c>
@@ -1128,7 +1152,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -1138,10 +1162,10 @@
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="1">
         <v>0.08</v>
       </c>
@@ -1153,7 +1177,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>89</v>
       </c>
@@ -1163,10 +1187,10 @@
       <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="1">
         <v>0.05</v>
       </c>
@@ -1178,17 +1202,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="1">
         <v>0.6</v>
       </c>
@@ -1200,36 +1224,36 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6">
+      <c r="G16" s="7"/>
+      <c r="H16" s="1">
         <v>1.85</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="1">
         <f t="shared" si="0"/>
         <v>1.85</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1238,8 +1262,8 @@
       <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>120</v>
+      <c r="G17" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="H17" s="1">
         <v>0.127</v>
@@ -1252,23 +1276,23 @@
         <v>2.032</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>109</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H18" s="1">
@@ -1282,234 +1306,263 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>90</v>
+      <c r="D19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="H19" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>90</v>
+      <c r="D20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="H20" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="8"/>
+        <v>131</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="H21" s="1">
-        <v>0.1</v>
+        <v>3.1E-2</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>99</v>
+        <v>55</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>58</v>
+      <c r="F22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="H22" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>103</v>
+        <v>57</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>90</v>
+      <c r="F23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="H23" s="1">
-        <v>1E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="I23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>105</v>
+        <v>60</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H24" s="1">
         <v>1E-3</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>107</v>
+        <v>62</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H25" s="1">
         <v>1E-3</v>
       </c>
       <c r="I25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>101</v>
+        <v>64</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="F26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H26" s="1">
         <v>1E-3</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>98</v>
+        <v>66</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="F27" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H27" s="1">
@@ -1523,14 +1576,23 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H28" s="1">
@@ -1544,14 +1606,15 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="G29" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H29" s="1">
@@ -1565,14 +1628,15 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="G30" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H30" s="1">
@@ -1586,1188 +1650,1227 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="1">
+      <c r="D32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="1">
         <v>0.27</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I32" s="1">
         <v>10</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J32" s="1">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="1">
+      <c r="D33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="1">
         <v>0.4</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J33" s="1">
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="1">
+      <c r="D34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="1">
         <v>0.1</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I34" s="1">
         <v>1</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J34" s="1">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G34" s="8"/>
-      <c r="J34" s="1">
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="J35" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="J35" s="1">
+      <c r="D36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="J36" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G38" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="G38" s="7"/>
       <c r="H38" s="1">
-        <v>0.31</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" s="1">
         <f t="shared" si="0"/>
-        <v>0.92999999999999994</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G39" s="8"/>
+        <v>113</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="1">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" s="1">
         <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" s="8"/>
+        <v>114</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="G40" s="7"/>
       <c r="H40" s="1">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="I40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I41" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J41" s="1">
         <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="G42" s="7"/>
       <c r="H42" s="1">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="I42" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G43" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="1">
+        <v>4</v>
+      </c>
+      <c r="I43" s="1">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I43" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J43" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="G44" s="7"/>
       <c r="H44" s="1">
+        <v>8</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="1">
         <v>0.25</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I45" s="1">
         <v>1</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J45" s="1">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G45" s="8"/>
-      <c r="J45" s="1">
+    <row r="46" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="J46" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:10" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="G48" s="11" t="s">
+    <row r="48" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="7:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G49" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H48">
-        <f>SUM(J2:J47)</f>
-        <v>42.584000000000003</v>
-      </c>
-    </row>
-    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="H49">
+        <f>SUM(J2:J48)</f>
+        <v>42.728999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" display="https://www.mouser.com/ProductDetail/538-47257-0001" xr:uid="{C17B2B03-A3C0-4704-AC3F-EEEFB9AF6B92}"/>
@@ -2775,10 +2878,10 @@
     <hyperlink ref="F9" r:id="rId3" display="https://www.mouser.com/ProductDetail/595-SN74HCS04PWR" xr:uid="{56A7675B-E705-4CE1-8041-E4B08766A1DA}"/>
     <hyperlink ref="F7" r:id="rId4" display="https://www.mouser.com/ProductDetail/595-OPA341UA" xr:uid="{D6BD1DE2-42A4-4679-A059-3E92ACE4C241}"/>
     <hyperlink ref="F8" r:id="rId5" display="https://www.mouser.com/ProductDetail/757-TLP2361TPRE" xr:uid="{CDC35B8D-56C3-4B03-9937-BAFF2B409AA3}"/>
-    <hyperlink ref="F27" r:id="rId6" display="https://www.mouser.com/ProductDetail/303-0603WAF1004T5E" xr:uid="{938DC35C-C5F4-43ED-B330-9F6C59021A94}"/>
-    <hyperlink ref="F23" r:id="rId7" display="https://www.mouser.com/ProductDetail/303-0603WAF1001T5E" xr:uid="{91B55385-706C-4060-9706-5EB410E14B8D}"/>
-    <hyperlink ref="F24" r:id="rId8" display="https://www.mouser.com/ProductDetail/791-RMC1-16-224JTP" xr:uid="{D344A636-C7A0-4884-9748-2436E93F036A}"/>
-    <hyperlink ref="F25" r:id="rId9" display="https://www.mouser.com/ProductDetail/791-WR06X104JTL" xr:uid="{288AFB46-DD63-42B5-8BCB-A3D734BE784D}"/>
+    <hyperlink ref="F28" r:id="rId6" display="https://www.mouser.com/ProductDetail/303-0603WAF1004T5E" xr:uid="{938DC35C-C5F4-43ED-B330-9F6C59021A94}"/>
+    <hyperlink ref="F24" r:id="rId7" display="https://www.mouser.com/ProductDetail/303-0603WAF1001T5E" xr:uid="{91B55385-706C-4060-9706-5EB410E14B8D}"/>
+    <hyperlink ref="F25" r:id="rId8" display="https://www.mouser.com/ProductDetail/791-RMC1-16-224JTP" xr:uid="{D344A636-C7A0-4884-9748-2436E93F036A}"/>
+    <hyperlink ref="F26" r:id="rId9" display="https://www.mouser.com/ProductDetail/791-WR06X104JTL" xr:uid="{288AFB46-DD63-42B5-8BCB-A3D734BE784D}"/>
     <hyperlink ref="F18" r:id="rId10" display="https://www.mouser.com/ProductDetail/581-0603YC104K" xr:uid="{E4733424-B19B-44B5-AA3E-02DA6288489A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>

--- a/Hardware/Final/DCZIA DC31 BADGE BOM.xlsx
+++ b/Hardware/Final/DCZIA DC31 BADGE BOM.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamster\Documents\Development\dczia\Defcon31-Badge\Hardware\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Other\Defcon31-Badge\Hardware\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A3DE80-785A-4757-A2D2-C8AB7966F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B18BD5-9CF3-433A-9756-8685816A064E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47196" yWindow="3756" windowWidth="21540" windowHeight="17976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="345" windowWidth="27045" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="146">
   <si>
     <t>Refdes</t>
   </si>
@@ -49,18 +62,6 @@
     <t>Needed</t>
   </si>
   <si>
-    <t>To Order</t>
-  </si>
-  <si>
-    <t>Cost Per Board</t>
-  </si>
-  <si>
-    <t>Qty ordered</t>
-  </si>
-  <si>
-    <t>Actual Cost</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -443,6 +444,33 @@
   </si>
   <si>
     <t>3015</t>
+  </si>
+  <si>
+    <t>Run Units</t>
+  </si>
+  <si>
+    <t>Run Cost $</t>
+  </si>
+  <si>
+    <t>Total for Run</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Litho</t>
+  </si>
+  <si>
+    <t>hamster</t>
+  </si>
+  <si>
+    <t>to-order</t>
+  </si>
+  <si>
+    <t>Contributions</t>
+  </si>
+  <si>
+    <t>bob</t>
   </si>
 </sst>
 </file>
@@ -824,29 +852,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P982"/>
+  <dimension ref="A1:N982"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="6"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,10 +889,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>4</v>
@@ -875,7 +904,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -884,60 +913,57 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="1">
@@ -953,25 +979,33 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <f>($N$2 * I6) - K6</f>
+        <v>500</v>
+      </c>
+      <c r="M6" s="1">
+        <f>L6*H6</f>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="1">
@@ -984,25 +1018,36 @@
         <f>H7*I7</f>
         <v>2.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L35" si="0">($N$2 * I7) - K7</f>
+        <v>100</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" ref="M7:M34" si="1">L7*H7</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="1">
@@ -1012,31 +1057,39 @@
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" ref="J8:J46" si="0">H8*I8</f>
+        <f t="shared" ref="J8:J46" si="2">H8*I8</f>
         <v>0.47699999999999998</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="1"/>
+        <v>47.699999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="1">
@@ -1046,31 +1099,39 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="1">
@@ -1080,31 +1141,39 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="1">
@@ -1114,31 +1183,39 @@
         <v>1</v>
       </c>
       <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>2.11</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>2.11</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="1">
@@ -1148,22 +1225,33 @@
         <v>1</v>
       </c>
       <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.03</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>1.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="1">
@@ -1173,22 +1261,33 @@
         <v>1</v>
       </c>
       <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.08</v>
+      </c>
+      <c r="K13" s="1">
+        <v>100</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="1">
@@ -1198,19 +1297,30 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="1">
@@ -1220,19 +1330,30 @@
         <v>1</v>
       </c>
       <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="1">
+        <v>100</v>
+      </c>
+      <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="1">
@@ -1242,28 +1363,39 @@
         <v>1</v>
       </c>
       <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>1.85</v>
+      </c>
+      <c r="K16" s="1">
+        <v>100</v>
+      </c>
+      <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H17" s="1">
         <v>0.127</v>
@@ -1272,28 +1404,39 @@
         <v>16</v>
       </c>
       <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>2.032</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="0"/>
-        <v>2.032</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>1600</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="1"/>
+        <v>203.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H18" s="1">
         <v>1.0999999999999999E-2</v>
@@ -1302,28 +1445,39 @@
         <v>4</v>
       </c>
       <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
         <f t="shared" si="0"/>
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3999999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H19" s="1">
         <v>3.4000000000000002E-2</v>
@@ -1332,28 +1486,39 @@
         <v>1</v>
       </c>
       <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
         <f t="shared" si="0"/>
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H20" s="1">
         <v>3.5000000000000003E-2</v>
@@ -1362,28 +1527,39 @@
         <v>1</v>
       </c>
       <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H21" s="1">
         <v>3.1E-2</v>
@@ -1392,28 +1568,39 @@
         <v>1</v>
       </c>
       <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
         <f t="shared" si="0"/>
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H22" s="1">
         <v>0.16700000000000001</v>
@@ -1422,28 +1609,39 @@
         <v>1</v>
       </c>
       <c r="J22" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
         <f t="shared" si="0"/>
-        <v>0.16700000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="1"/>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H23" s="1">
         <v>4.8000000000000001E-2</v>
@@ -1452,28 +1650,39 @@
         <v>1</v>
       </c>
       <c r="J23" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>100</v>
+      </c>
+      <c r="L23" s="1">
         <f t="shared" si="0"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H24" s="1">
         <v>1E-3</v>
@@ -1482,28 +1691,35 @@
         <v>2</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H25" s="1">
         <v>1E-3</v>
@@ -1512,28 +1728,35 @@
         <v>1</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H26" s="1">
         <v>1E-3</v>
@@ -1542,28 +1765,35 @@
         <v>3</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H27" s="1">
         <v>1E-3</v>
@@ -1572,28 +1802,35 @@
         <v>1</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H28" s="1">
         <v>1E-3</v>
@@ -1602,20 +1839,27 @@
         <v>1</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D29" s="7"/>
       <c r="G29" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H29" s="1">
         <v>1E-3</v>
@@ -1624,20 +1868,27 @@
         <v>1</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D30" s="7"/>
       <c r="G30" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H30" s="1">
         <v>1E-3</v>
@@ -1646,20 +1897,27 @@
         <v>1</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H31" s="1">
         <v>1E-3</v>
@@ -1668,16 +1926,23 @@
         <v>1</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D32" s="7"/>
       <c r="G32" s="7"/>
@@ -1688,16 +1953,27 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="1">
         <f t="shared" si="0"/>
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D33" s="7"/>
       <c r="G33" s="7"/>
@@ -1708,16 +1984,27 @@
         <v>2</v>
       </c>
       <c r="J33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
         <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D34" s="7"/>
       <c r="G34" s="7"/>
@@ -1728,33 +2015,51 @@
         <v>1</v>
       </c>
       <c r="J34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D35" s="7"/>
       <c r="G35" s="7"/>
       <c r="J35" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D36" s="7"/>
       <c r="G36" s="7"/>
       <c r="J36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="D37" s="7"/>
       <c r="G37" s="7"/>
@@ -1765,14 +2070,17 @@
         <v>1</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="D38" s="7"/>
       <c r="G38" s="7"/>
@@ -1783,14 +2091,17 @@
         <v>1</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D39" s="7"/>
       <c r="G39" s="7"/>
@@ -1801,14 +2112,17 @@
         <v>3</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D40" s="7"/>
       <c r="G40" s="7"/>
@@ -1819,14 +2133,17 @@
         <v>1</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D41" s="7"/>
       <c r="G41" s="7"/>
@@ -1837,14 +2154,17 @@
         <v>2</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D42" s="7"/>
       <c r="G42" s="7"/>
@@ -1855,14 +2175,17 @@
         <v>10</v>
       </c>
       <c r="J42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="D43" s="7"/>
       <c r="G43" s="7"/>
@@ -1873,14 +2196,17 @@
         <v>2</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D44" s="7"/>
       <c r="G44" s="7"/>
@@ -1891,14 +2217,17 @@
         <v>0.1</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="D45" s="7"/>
       <c r="G45" s="7"/>
@@ -1909,968 +2238,985 @@
         <v>1</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D46" s="7"/>
       <c r="G46" s="7"/>
       <c r="J46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D47" s="8"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="D48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="7:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49">
+        <v>1500</v>
+      </c>
       <c r="G49" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H49">
         <f>SUM(J2:J48)</f>
         <v>42.728999999999999</v>
       </c>
     </row>
-    <row r="50" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="7:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G50" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H50">
+        <f>SUM(M6:M34)</f>
+        <v>2011.0000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:8" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" display="https://www.mouser.com/ProductDetail/538-47257-0001" xr:uid="{C17B2B03-A3C0-4704-AC3F-EEEFB9AF6B92}"/>

--- a/Hardware/Final/DCZIA DC31 BADGE BOM.xlsx
+++ b/Hardware/Final/DCZIA DC31 BADGE BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamster\Documents\Development\dczia\Defcon31-Badge\Hardware\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263D53A5-8FF5-4FC0-92CD-F653CADE6F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F13DC4E-5EE9-4D30-9B1E-EE24D1443953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9864" yWindow="852" windowWidth="28872" windowHeight="17976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62844" yWindow="9708" windowWidth="21540" windowHeight="14832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="162">
   <si>
     <t>Refdes</t>
   </si>
@@ -503,13 +503,16 @@
   </si>
   <si>
     <t>KYCON</t>
+  </si>
+  <si>
+    <t>Height</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -563,6 +566,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -585,7 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -601,6 +617,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -885,11 +904,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O983"/>
+  <dimension ref="A1:P983"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -900,15 +919,16 @@
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="6"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,43 +947,46 @@
       <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>137</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>136</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -971,20 +994,22 @@
         <v>41</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="15"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="15"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
@@ -1003,32 +1028,33 @@
       <c r="F6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="1">
+      <c r="G6" s="16"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="1">
         <v>0.98199999999999998</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="J6" s="1">
-        <f>H6*I6</f>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
         <v>4.91</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6" si="0">IF((($N$2 * I6) - K6) &lt; 0, 0, (($N$2 * I6) - K6))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6" si="0">IF((($O$2 * J6) - L6) &lt; 0, 0, (($O$2 * J6) - L6))</f>
         <v>550</v>
       </c>
-      <c r="M6" s="1">
-        <f>L6*H6</f>
+      <c r="N6" s="1">
+        <f>M6*I6</f>
         <v>540.1</v>
       </c>
-      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
@@ -1047,33 +1073,34 @@
       <c r="F7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="1">
+      <c r="G7" s="16"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="1">
         <v>1.52536</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="1">
-        <f>H7*I7</f>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
         <v>7.6268000000000002</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L35" si="1">IF((($N$2 * I7) - K7) &lt; 0, 0, (($N$2 * I7) - K7))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" ref="M7:M35" si="1">IF((($O$2 * J7) - L7) &lt; 0, 0, (($O$2 * J7) - L7))</f>
         <v>550</v>
       </c>
-      <c r="M7" s="1">
-        <f>L7*H7</f>
+      <c r="N7" s="1">
+        <f>M7*I7</f>
         <v>838.94799999999998</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -1092,33 +1119,36 @@
       <c r="F8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="1">
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="1">
         <v>2.06</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1">
-        <f>H8*I8</f>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
         <v>2.06</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
       <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M8" s="1">
-        <f t="shared" ref="M8:M35" si="2">L8*H8</f>
+      <c r="N8" s="1">
+        <f t="shared" ref="N8:N35" si="2">M8*I8</f>
         <v>226.6</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
@@ -1137,33 +1167,34 @@
       <c r="F9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="1">
+      <c r="G9" s="16"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="1">
         <v>0.47699999999999998</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
-        <f t="shared" ref="J9:J47" si="3">H9*I9</f>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9:K47" si="3">I9*J9</f>
         <v>0.47699999999999998</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
       <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <f t="shared" si="2"/>
         <v>52.47</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
@@ -1182,33 +1213,36 @@
       <c r="F10" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="1">
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="1">
         <v>0.18</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="3"/>
         <v>0.18</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>100</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -1227,33 +1261,34 @@
       <c r="F11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="1">
+      <c r="G11" s="15"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="1">
         <v>6</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
       <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
@@ -1272,33 +1307,36 @@
       <c r="F12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="1">
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="1">
         <v>2.11</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="3"/>
         <v>2.11</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
       <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <f t="shared" si="2"/>
         <v>232.1</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>77</v>
       </c>
@@ -1317,33 +1355,36 @@
       <c r="F13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="1">
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="1">
         <v>1.03</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="3"/>
         <v>1.03</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
       <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="2"/>
         <v>113.3</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1356,30 +1397,31 @@
       <c r="D14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="1">
+      <c r="G14" s="15"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="1">
         <v>0.08</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>110</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
@@ -1392,30 +1434,31 @@
       <c r="D15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="1">
+      <c r="G15" s="15"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="1">
         <v>0.05</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>10</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>1500</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1425,30 +1468,31 @@
       <c r="D16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="1">
+      <c r="G16" s="15"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="1">
         <v>0.6</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>110</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1458,30 +1502,31 @@
       <c r="D17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="1">
+      <c r="G17" s="15"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="1">
         <v>1.85</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <f t="shared" si="3"/>
         <v>1.85</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>110</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
@@ -1497,35 +1542,38 @@
       <c r="F18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>0.127</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <f t="shared" si="3"/>
         <v>2.032</v>
       </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
       <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <f t="shared" si="1"/>
         <v>1760</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <f t="shared" si="2"/>
         <v>223.52</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1541,32 +1589,35 @@
       <c r="F19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>4</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <f t="shared" si="3"/>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>1000</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1582,35 +1633,38 @@
       <c r="F20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <f t="shared" si="3"/>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
       <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <f t="shared" si="2"/>
         <v>3.74</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -1626,35 +1680,38 @@
       <c r="F21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <f t="shared" si="3"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K21" s="1">
-        <v>0</v>
-      </c>
       <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <f t="shared" si="2"/>
         <v>3.8500000000000005</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>127</v>
       </c>
@@ -1670,35 +1727,38 @@
       <c r="F22" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="15">
+        <v>1.45</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <f t="shared" si="3"/>
         <v>3.1E-2</v>
       </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
       <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <f t="shared" si="2"/>
         <v>3.41</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1714,35 +1774,36 @@
       <c r="F23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="15"/>
+      <c r="H23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>0.16700000000000001</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>1</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <f t="shared" si="3"/>
         <v>0.16700000000000001</v>
       </c>
-      <c r="K23" s="1">
-        <v>0</v>
-      </c>
       <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <f t="shared" si="2"/>
         <v>18.37</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1758,35 +1819,38 @@
       <c r="F24" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <f t="shared" si="3"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K24" s="1">
+      <c r="L24" s="1">
         <v>100</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <f t="shared" si="2"/>
         <v>0.48</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1802,32 +1866,35 @@
       <c r="F25" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <f t="shared" si="3"/>
         <v>2E-3</v>
       </c>
-      <c r="K25" s="1">
+      <c r="L25" s="1">
         <v>5000</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>56</v>
       </c>
@@ -1843,32 +1910,35 @@
       <c r="F26" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
-      <c r="K26" s="1">
+      <c r="L26" s="1">
         <v>5000</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>58</v>
       </c>
@@ -1884,32 +1954,35 @@
       <c r="F27" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="1">
         <v>3</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <f t="shared" si="3"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="1">
         <v>5000</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -1925,32 +1998,35 @@
       <c r="F28" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
-      <c r="K28" s="1">
+      <c r="L28" s="1">
         <v>5000</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -1966,32 +2042,35 @@
       <c r="F29" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="1">
         <v>5000</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -2007,35 +2086,38 @@
       <c r="F30" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
-      <c r="K30" s="1">
-        <v>0</v>
-      </c>
       <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="1">
         <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
-      <c r="N30" s="1">
+      <c r="O30" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -2051,35 +2133,38 @@
       <c r="F31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H31" s="1">
+      <c r="I31" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K31" s="1">
         <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
-      <c r="K31" s="1">
-        <v>0</v>
-      </c>
       <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <f t="shared" si="2"/>
         <v>0.11</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -2087,32 +2172,35 @@
         <v>69</v>
       </c>
       <c r="D32" s="7"/>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="16">
+        <v>0.45</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H32" s="1">
+      <c r="I32" s="1">
         <v>1E-3</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <f t="shared" si="3"/>
         <v>1E-3</v>
       </c>
-      <c r="K32" s="1">
+      <c r="L32" s="1">
         <v>5000</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
@@ -2120,30 +2208,31 @@
         <v>71</v>
       </c>
       <c r="D33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="1">
+      <c r="G33" s="15"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="1">
         <v>0.27</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>10</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <f t="shared" si="3"/>
         <v>2.7</v>
       </c>
-      <c r="K33" s="1">
+      <c r="L33" s="1">
         <v>1300</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>72</v>
       </c>
@@ -2159,33 +2248,34 @@
       <c r="F34" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="1">
+      <c r="G34" s="15"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>2</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="K34" s="1">
-        <v>0</v>
-      </c>
       <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <f t="shared" si="2"/>
         <v>242.00000000000003</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>112</v>
       </c>
@@ -2201,52 +2291,55 @@
       <c r="F35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="1">
+      <c r="G35" s="15"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="1">
         <v>0.53400000000000003</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <f t="shared" si="3"/>
         <v>0.53400000000000003</v>
       </c>
-      <c r="K35" s="1">
-        <v>0</v>
-      </c>
       <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <f t="shared" si="2"/>
         <v>58.74</v>
       </c>
-      <c r="N35" s="1">
+      <c r="O35" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="J36" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G36" s="15"/>
+      <c r="H36" s="7"/>
+      <c r="K36" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="J37" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G37" s="15"/>
+      <c r="H37" s="7"/>
+      <c r="K37" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>106</v>
@@ -2255,19 +2348,20 @@
         <v>139</v>
       </c>
       <c r="D38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="7"/>
       <c r="I38" s="1">
         <v>1</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="K38" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>107</v>
@@ -2276,19 +2370,20 @@
         <v>140</v>
       </c>
       <c r="D39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="1">
+      <c r="G39" s="15"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="1">
         <v>2</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <v>1</v>
       </c>
-      <c r="J39" s="1">
+      <c r="K39" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
         <v>108</v>
@@ -2297,19 +2392,20 @@
         <v>141</v>
       </c>
       <c r="D40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="1">
+      <c r="G40" s="15"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="1">
         <v>0.31</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>3</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1">
         <f t="shared" si="3"/>
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
         <v>109</v>
@@ -2318,19 +2414,20 @@
         <v>141</v>
       </c>
       <c r="D41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="1">
+      <c r="G41" s="15"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="1">
         <v>0.45</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>1</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1">
         <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="1" t="s">
         <v>110</v>
@@ -2339,19 +2436,20 @@
         <v>141</v>
       </c>
       <c r="D42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="1">
+      <c r="G42" s="15"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="1">
         <v>0.5</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>2</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="1" t="s">
         <v>111</v>
@@ -2360,19 +2458,20 @@
         <v>141</v>
       </c>
       <c r="D43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="1">
+      <c r="G43" s="15"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="1">
         <v>0.25</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>10</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="1" t="s">
         <v>118</v>
@@ -2381,19 +2480,20 @@
         <v>141</v>
       </c>
       <c r="D44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="1">
+      <c r="G44" s="15"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="1">
         <v>4</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>2</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="1" t="s">
         <v>119</v>
@@ -2402,19 +2502,20 @@
         <v>142</v>
       </c>
       <c r="D45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="1">
+      <c r="G45" s="15"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="1">
         <v>8</v>
       </c>
-      <c r="I45" s="1">
+      <c r="J45" s="1">
         <v>0.1</v>
       </c>
-      <c r="J45" s="1">
+      <c r="K45" s="1">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
         <v>120</v>
@@ -2423,80 +2524,84 @@
         <v>142</v>
       </c>
       <c r="D46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="1">
+      <c r="G46" s="15"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="1">
         <v>0.25</v>
       </c>
-      <c r="I46" s="1">
+      <c r="J46" s="1">
         <v>1</v>
       </c>
-      <c r="J46" s="1">
+      <c r="K46" s="1">
         <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="J47" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G47" s="15"/>
+      <c r="H47" s="7"/>
+      <c r="K47" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D48" s="8"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="2:8" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G48" s="17"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="2:9" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>143</v>
       </c>
       <c r="D49" s="7"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="G49" s="15"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C50">
         <v>2500</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H50">
-        <f>SUM(J2:J49)</f>
+      <c r="I50">
+        <f>SUM(K2:K49)</f>
         <v>52.189800000000005</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C51">
         <v>1100</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="H51" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H51">
-        <f>SUM(M7:M35)</f>
+      <c r="I51">
+        <f>SUM(N7:N35)</f>
         <v>2679.5479999999993</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:8" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:9" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
